--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>FireFlink_66868</t>
+  </si>
+  <si>
+    <t>FireFlink_86351</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>FireFlink_86351</t>
+  </si>
+  <si>
+    <t>FireFlink_55296</t>
+  </si>
+  <si>
+    <t>FireFlink_73882</t>
+  </si>
+  <si>
+    <t>FireFlink_41275</t>
+  </si>
+  <si>
+    <t>FireFlink_04851</t>
+  </si>
+  <si>
+    <t>FireFlink_73498</t>
+  </si>
+  <si>
+    <t>FireFlink_60480</t>
+  </si>
+  <si>
+    <t>FireFlink_74969</t>
+  </si>
+  <si>
+    <t>FireFlink_27218</t>
   </si>
 </sst>
 </file>
@@ -416,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -67,6 +67,39 @@
   </si>
   <si>
     <t>FireFlink_27218</t>
+  </si>
+  <si>
+    <t>FireFlink_52885</t>
+  </si>
+  <si>
+    <t>FireFlink_88164</t>
+  </si>
+  <si>
+    <t>FireFlink_96339</t>
+  </si>
+  <si>
+    <t>FireFlink_15707</t>
+  </si>
+  <si>
+    <t>FireFlink_00609</t>
+  </si>
+  <si>
+    <t>FireFlink_34359</t>
+  </si>
+  <si>
+    <t>FireFlink_02483</t>
+  </si>
+  <si>
+    <t>FireFlink_30557</t>
+  </si>
+  <si>
+    <t>FireFlink_94246</t>
+  </si>
+  <si>
+    <t>FireFlink_88894</t>
+  </si>
+  <si>
+    <t>FireFlink_01788</t>
   </si>
 </sst>
 </file>
@@ -440,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>FireFlink_01788</t>
+  </si>
+  <si>
+    <t>FireFlink_57975</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -103,6 +103,96 @@
   </si>
   <si>
     <t>FireFlink_57975</t>
+  </si>
+  <si>
+    <t>FireFlink_15162</t>
+  </si>
+  <si>
+    <t>FireFlink_22749</t>
+  </si>
+  <si>
+    <t>FireFlink_71104</t>
+  </si>
+  <si>
+    <t>FireFlink_59641</t>
+  </si>
+  <si>
+    <t>FireFlink_88465</t>
+  </si>
+  <si>
+    <t>FireFlink_78770</t>
+  </si>
+  <si>
+    <t>FireFlink_12501</t>
+  </si>
+  <si>
+    <t>FireFlink_74229</t>
+  </si>
+  <si>
+    <t>FireFlink_82246</t>
+  </si>
+  <si>
+    <t>FireFlink_42796</t>
+  </si>
+  <si>
+    <t>FireFlink_51421</t>
+  </si>
+  <si>
+    <t>FireFlink_85215</t>
+  </si>
+  <si>
+    <t>FireFlink_28403</t>
+  </si>
+  <si>
+    <t>FireFlink_54696</t>
+  </si>
+  <si>
+    <t>FireFlink_49324</t>
+  </si>
+  <si>
+    <t>FireFlink_20814</t>
+  </si>
+  <si>
+    <t>FireFlink_29820</t>
+  </si>
+  <si>
+    <t>FireFlink_14697</t>
+  </si>
+  <si>
+    <t>FireFlink_18301</t>
+  </si>
+  <si>
+    <t>FireFlink_79065</t>
+  </si>
+  <si>
+    <t>FireFlink_82094</t>
+  </si>
+  <si>
+    <t>FireFlink_99431</t>
+  </si>
+  <si>
+    <t>FireFlink_72675</t>
+  </si>
+  <si>
+    <t>FireFlink_51379</t>
+  </si>
+  <si>
+    <t>FireFlink_50115</t>
+  </si>
+  <si>
+    <t>FireFlink_80814</t>
+  </si>
+  <si>
+    <t>FireFlink_62358</t>
+  </si>
+  <si>
+    <t>FireFlink_08433</t>
+  </si>
+  <si>
+    <t>FireFlink_59371</t>
+  </si>
+  <si>
+    <t>FireFlink_36392</t>
   </si>
 </sst>
 </file>
@@ -476,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -193,6 +193,45 @@
   </si>
   <si>
     <t>FireFlink_36392</t>
+  </si>
+  <si>
+    <t>FireFlink_25030</t>
+  </si>
+  <si>
+    <t>FireFlink_45093</t>
+  </si>
+  <si>
+    <t>FireFlink_07183</t>
+  </si>
+  <si>
+    <t>FireFlink_91060</t>
+  </si>
+  <si>
+    <t>FireFlink_44625</t>
+  </si>
+  <si>
+    <t>FireFlink_94642</t>
+  </si>
+  <si>
+    <t>FireFlink_84988</t>
+  </si>
+  <si>
+    <t>FireFlink_40555</t>
+  </si>
+  <si>
+    <t>FireFlink_25908</t>
+  </si>
+  <si>
+    <t>FireFlink_31501</t>
+  </si>
+  <si>
+    <t>FireFlink_13681</t>
+  </si>
+  <si>
+    <t>FireFlink_73133</t>
+  </si>
+  <si>
+    <t>FireFlink_43456</t>
   </si>
 </sst>
 </file>
@@ -566,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -232,6 +232,48 @@
   </si>
   <si>
     <t>FireFlink_43456</t>
+  </si>
+  <si>
+    <t>FireFlink_95456</t>
+  </si>
+  <si>
+    <t>FireFlink_20862</t>
+  </si>
+  <si>
+    <t>FireFlink_79988</t>
+  </si>
+  <si>
+    <t>FireFlink_94557</t>
+  </si>
+  <si>
+    <t>FireFlink_12102</t>
+  </si>
+  <si>
+    <t>FireFlink_73640</t>
+  </si>
+  <si>
+    <t>FireFlink_62538</t>
+  </si>
+  <si>
+    <t>FireFlink_45755</t>
+  </si>
+  <si>
+    <t>FireFlink_25537</t>
+  </si>
+  <si>
+    <t>FireFlink_84685</t>
+  </si>
+  <si>
+    <t>FireFlink_49073</t>
+  </si>
+  <si>
+    <t>FireFlink_56027</t>
+  </si>
+  <si>
+    <t>FireFlink_91709</t>
+  </si>
+  <si>
+    <t>FireFlink_89788</t>
   </si>
 </sst>
 </file>
@@ -605,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t>FireFlink_89788</t>
+  </si>
+  <si>
+    <t>FireFlink_25605</t>
+  </si>
+  <si>
+    <t>FireFlink_03619</t>
+  </si>
+  <si>
+    <t>FireFlink_75137</t>
+  </si>
+  <si>
+    <t>FireFlink_79034</t>
+  </si>
+  <si>
+    <t>FireFlink_55608</t>
   </si>
 </sst>
 </file>
@@ -647,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -289,6 +289,30 @@
   </si>
   <si>
     <t>FireFlink_55608</t>
+  </si>
+  <si>
+    <t>FireFlink_45155</t>
+  </si>
+  <si>
+    <t>FireFlink_31839</t>
+  </si>
+  <si>
+    <t>FireFlink_84367</t>
+  </si>
+  <si>
+    <t>FireFlink_63020</t>
+  </si>
+  <si>
+    <t>FireFlink_73231</t>
+  </si>
+  <si>
+    <t>FireFlink_27330</t>
+  </si>
+  <si>
+    <t>FireFlink_65983</t>
+  </si>
+  <si>
+    <t>FireFlink_81727</t>
   </si>
 </sst>
 </file>
@@ -662,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>FireFlink_81727</t>
+  </si>
+  <si>
+    <t>FireFlink_44382</t>
+  </si>
+  <si>
+    <t>FireFlink_49011</t>
+  </si>
+  <si>
+    <t>FireFlink_41826</t>
+  </si>
+  <si>
+    <t>FireFlink_83074</t>
   </si>
 </sst>
 </file>
@@ -686,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -325,6 +325,240 @@
   </si>
   <si>
     <t>FireFlink_83074</t>
+  </si>
+  <si>
+    <t>FireFlink_55484</t>
+  </si>
+  <si>
+    <t>FireFlink_15572</t>
+  </si>
+  <si>
+    <t>FireFlink_76640</t>
+  </si>
+  <si>
+    <t>FireFlink_20757</t>
+  </si>
+  <si>
+    <t>FireFlink_25309</t>
+  </si>
+  <si>
+    <t>FireFlink_27457</t>
+  </si>
+  <si>
+    <t>FireFlink_12642</t>
+  </si>
+  <si>
+    <t>FireFlink_42880</t>
+  </si>
+  <si>
+    <t>FireFlink_68878</t>
+  </si>
+  <si>
+    <t>FireFlink_54388</t>
+  </si>
+  <si>
+    <t>FireFlink_82827</t>
+  </si>
+  <si>
+    <t>FireFlink_80666</t>
+  </si>
+  <si>
+    <t>FireFlink_38778</t>
+  </si>
+  <si>
+    <t>FireFlink_24433</t>
+  </si>
+  <si>
+    <t>FireFlink_34146</t>
+  </si>
+  <si>
+    <t>FireFlink_43122</t>
+  </si>
+  <si>
+    <t>FireFlink_69018</t>
+  </si>
+  <si>
+    <t>FireFlink_50752</t>
+  </si>
+  <si>
+    <t>FireFlink_04719</t>
+  </si>
+  <si>
+    <t>FireFlink_48464</t>
+  </si>
+  <si>
+    <t>FireFlink_88654</t>
+  </si>
+  <si>
+    <t>FireFlink_24426</t>
+  </si>
+  <si>
+    <t>FireFlink_64446</t>
+  </si>
+  <si>
+    <t>FireFlink_04277</t>
+  </si>
+  <si>
+    <t>FireFlink_42919</t>
+  </si>
+  <si>
+    <t>FireFlink_68020</t>
+  </si>
+  <si>
+    <t>FireFlink_10418</t>
+  </si>
+  <si>
+    <t>FireFlink_31278</t>
+  </si>
+  <si>
+    <t>FireFlink_09012</t>
+  </si>
+  <si>
+    <t>FireFlink_08897</t>
+  </si>
+  <si>
+    <t>FireFlink_74597</t>
+  </si>
+  <si>
+    <t>FireFlink_27813</t>
+  </si>
+  <si>
+    <t>FireFlink_57140</t>
+  </si>
+  <si>
+    <t>FireFlink_01594</t>
+  </si>
+  <si>
+    <t>FireFlink_42877</t>
+  </si>
+  <si>
+    <t>FireFlink_26368</t>
+  </si>
+  <si>
+    <t>FireFlink_36866</t>
+  </si>
+  <si>
+    <t>FireFlink_51665</t>
+  </si>
+  <si>
+    <t>FireFlink_69365</t>
+  </si>
+  <si>
+    <t>FireFlink_58899</t>
+  </si>
+  <si>
+    <t>FireFlink_26459</t>
+  </si>
+  <si>
+    <t>FireFlink_72540</t>
+  </si>
+  <si>
+    <t>FireFlink_06792</t>
+  </si>
+  <si>
+    <t>FireFlink_46702</t>
+  </si>
+  <si>
+    <t>FireFlink_50126</t>
+  </si>
+  <si>
+    <t>FireFlink_96862</t>
+  </si>
+  <si>
+    <t>FireFlink_48714</t>
+  </si>
+  <si>
+    <t>FireFlink_63756</t>
+  </si>
+  <si>
+    <t>FireFlink_55354</t>
+  </si>
+  <si>
+    <t>FireFlink_82692</t>
+  </si>
+  <si>
+    <t>FireFlink_11492</t>
+  </si>
+  <si>
+    <t>FireFlink_11882</t>
+  </si>
+  <si>
+    <t>FireFlink_99041</t>
+  </si>
+  <si>
+    <t>FireFlink_39571</t>
+  </si>
+  <si>
+    <t>FireFlink_58304</t>
+  </si>
+  <si>
+    <t>FireFlink_79605</t>
+  </si>
+  <si>
+    <t>FireFlink_73107</t>
+  </si>
+  <si>
+    <t>FireFlink_79075</t>
+  </si>
+  <si>
+    <t>FireFlink_83378</t>
+  </si>
+  <si>
+    <t>FireFlink_27644</t>
+  </si>
+  <si>
+    <t>FireFlink_92580</t>
+  </si>
+  <si>
+    <t>FireFlink_14300</t>
+  </si>
+  <si>
+    <t>FireFlink_05073</t>
+  </si>
+  <si>
+    <t>FireFlink_19390</t>
+  </si>
+  <si>
+    <t>FireFlink_35143</t>
+  </si>
+  <si>
+    <t>FireFlink_62522</t>
+  </si>
+  <si>
+    <t>FireFlink_74524</t>
+  </si>
+  <si>
+    <t>FireFlink_05846</t>
+  </si>
+  <si>
+    <t>FireFlink_24938</t>
+  </si>
+  <si>
+    <t>FireFlink_31255</t>
+  </si>
+  <si>
+    <t>FireFlink_02690</t>
+  </si>
+  <si>
+    <t>FireFlink_58335</t>
+  </si>
+  <si>
+    <t>FireFlink_25755</t>
+  </si>
+  <si>
+    <t>FireFlink_35949</t>
+  </si>
+  <si>
+    <t>FireFlink_37604</t>
+  </si>
+  <si>
+    <t>FireFlink_17713</t>
+  </si>
+  <si>
+    <t>FireFlink_22283</t>
+  </si>
+  <si>
+    <t>FireFlink_37139</t>
   </si>
 </sst>
 </file>
@@ -698,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -559,6 +559,81 @@
   </si>
   <si>
     <t>FireFlink_37139</t>
+  </si>
+  <si>
+    <t>FireFlink_60242</t>
+  </si>
+  <si>
+    <t>FireFlink_52907</t>
+  </si>
+  <si>
+    <t>FireFlink_50315</t>
+  </si>
+  <si>
+    <t>FireFlink_83401</t>
+  </si>
+  <si>
+    <t>FireFlink_28489</t>
+  </si>
+  <si>
+    <t>FireFlink_69113</t>
+  </si>
+  <si>
+    <t>FireFlink_51576</t>
+  </si>
+  <si>
+    <t>FireFlink_39640</t>
+  </si>
+  <si>
+    <t>FireFlink_18099</t>
+  </si>
+  <si>
+    <t>FireFlink_31582</t>
+  </si>
+  <si>
+    <t>FireFlink_08127</t>
+  </si>
+  <si>
+    <t>FireFlink_19976</t>
+  </si>
+  <si>
+    <t>FireFlink_80395</t>
+  </si>
+  <si>
+    <t>FireFlink_10990</t>
+  </si>
+  <si>
+    <t>FireFlink_94103</t>
+  </si>
+  <si>
+    <t>FireFlink_55412</t>
+  </si>
+  <si>
+    <t>FireFlink_25520</t>
+  </si>
+  <si>
+    <t>FireFlink_25438</t>
+  </si>
+  <si>
+    <t>FireFlink_35339</t>
+  </si>
+  <si>
+    <t>FireFlink_86900</t>
+  </si>
+  <si>
+    <t>FireFlink_77357</t>
+  </si>
+  <si>
+    <t>FireFlink_24502</t>
+  </si>
+  <si>
+    <t>FireFlink_18027</t>
+  </si>
+  <si>
+    <t>FireFlink_96267</t>
+  </si>
+  <si>
+    <t>FireFlink_42725</t>
   </si>
 </sst>
 </file>
@@ -932,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -634,6 +634,45 @@
   </si>
   <si>
     <t>FireFlink_42725</t>
+  </si>
+  <si>
+    <t>FireFlink_67087</t>
+  </si>
+  <si>
+    <t>FireFlink_65721</t>
+  </si>
+  <si>
+    <t>FireFlink_11669</t>
+  </si>
+  <si>
+    <t>FireFlink_23558</t>
+  </si>
+  <si>
+    <t>FireFlink_07337</t>
+  </si>
+  <si>
+    <t>FireFlink_35835</t>
+  </si>
+  <si>
+    <t>FireFlink_66807</t>
+  </si>
+  <si>
+    <t>FireFlink_58295</t>
+  </si>
+  <si>
+    <t>FireFlink_90147</t>
+  </si>
+  <si>
+    <t>FireFlink_02512</t>
+  </si>
+  <si>
+    <t>FireFlink_62325</t>
+  </si>
+  <si>
+    <t>FireFlink_56485</t>
+  </si>
+  <si>
+    <t>FireFlink_20187</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -673,6 +673,105 @@
   </si>
   <si>
     <t>FireFlink_20187</t>
+  </si>
+  <si>
+    <t>FireFlink_76439</t>
+  </si>
+  <si>
+    <t>FireFlink_44962</t>
+  </si>
+  <si>
+    <t>FireFlink_88147</t>
+  </si>
+  <si>
+    <t>FireFlink_30438</t>
+  </si>
+  <si>
+    <t>FireFlink_21760</t>
+  </si>
+  <si>
+    <t>FireFlink_12015</t>
+  </si>
+  <si>
+    <t>FireFlink_02681</t>
+  </si>
+  <si>
+    <t>FireFlink_93864</t>
+  </si>
+  <si>
+    <t>FireFlink_69080</t>
+  </si>
+  <si>
+    <t>FireFlink_63678</t>
+  </si>
+  <si>
+    <t>FireFlink_97963</t>
+  </si>
+  <si>
+    <t>FireFlink_96888</t>
+  </si>
+  <si>
+    <t>FireFlink_53429</t>
+  </si>
+  <si>
+    <t>FireFlink_38738</t>
+  </si>
+  <si>
+    <t>FireFlink_14465</t>
+  </si>
+  <si>
+    <t>FireFlink_08039</t>
+  </si>
+  <si>
+    <t>FireFlink_17246</t>
+  </si>
+  <si>
+    <t>FireFlink_10848</t>
+  </si>
+  <si>
+    <t>FireFlink_58232</t>
+  </si>
+  <si>
+    <t>FireFlink_90040</t>
+  </si>
+  <si>
+    <t>FireFlink_59825</t>
+  </si>
+  <si>
+    <t>FireFlink_02636</t>
+  </si>
+  <si>
+    <t>FireFlink_31289</t>
+  </si>
+  <si>
+    <t>FireFlink_58321</t>
+  </si>
+  <si>
+    <t>FireFlink_47846</t>
+  </si>
+  <si>
+    <t>FireFlink_68993</t>
+  </si>
+  <si>
+    <t>FireFlink_43568</t>
+  </si>
+  <si>
+    <t>FireFlink_43756</t>
+  </si>
+  <si>
+    <t>FireFlink_68775</t>
+  </si>
+  <si>
+    <t>FireFlink_21879</t>
+  </si>
+  <si>
+    <t>FireFlink_46836</t>
+  </si>
+  <si>
+    <t>FireFlink_62983</t>
+  </si>
+  <si>
+    <t>FireFlink_22755</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -772,6 +772,30 @@
   </si>
   <si>
     <t>FireFlink_22755</t>
+  </si>
+  <si>
+    <t>FireFlink_95290</t>
+  </si>
+  <si>
+    <t>FireFlink_76655</t>
+  </si>
+  <si>
+    <t>FireFlink_23017</t>
+  </si>
+  <si>
+    <t>FireFlink_57305</t>
+  </si>
+  <si>
+    <t>FireFlink_94349</t>
+  </si>
+  <si>
+    <t>FireFlink_36314</t>
+  </si>
+  <si>
+    <t>FireFlink_64099</t>
+  </si>
+  <si>
+    <t>FireFlink_05764</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -796,6 +796,75 @@
   </si>
   <si>
     <t>FireFlink_05764</t>
+  </si>
+  <si>
+    <t>FireFlink_00445</t>
+  </si>
+  <si>
+    <t>FireFlink_26865</t>
+  </si>
+  <si>
+    <t>FireFlink_17481</t>
+  </si>
+  <si>
+    <t>FireFlink_53830</t>
+  </si>
+  <si>
+    <t>FireFlink_63199</t>
+  </si>
+  <si>
+    <t>FireFlink_90693</t>
+  </si>
+  <si>
+    <t>FireFlink_60086</t>
+  </si>
+  <si>
+    <t>FireFlink_50003</t>
+  </si>
+  <si>
+    <t>FireFlink_41409</t>
+  </si>
+  <si>
+    <t>FireFlink_56052</t>
+  </si>
+  <si>
+    <t>FireFlink_97288</t>
+  </si>
+  <si>
+    <t>FireFlink_09398</t>
+  </si>
+  <si>
+    <t>FireFlink_86570</t>
+  </si>
+  <si>
+    <t>FireFlink_95223</t>
+  </si>
+  <si>
+    <t>FireFlink_97363</t>
+  </si>
+  <si>
+    <t>FireFlink_28588</t>
+  </si>
+  <si>
+    <t>FireFlink_54457</t>
+  </si>
+  <si>
+    <t>FireFlink_12167</t>
+  </si>
+  <si>
+    <t>FireFlink_55236</t>
+  </si>
+  <si>
+    <t>FireFlink_32663</t>
+  </si>
+  <si>
+    <t>FireFlink_64894</t>
+  </si>
+  <si>
+    <t>FireFlink_51760</t>
+  </si>
+  <si>
+    <t>FireFlink_59997</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -865,6 +865,42 @@
   </si>
   <si>
     <t>FireFlink_59997</t>
+  </si>
+  <si>
+    <t>FireFlink_71894</t>
+  </si>
+  <si>
+    <t>FireFlink_68169</t>
+  </si>
+  <si>
+    <t>FireFlink_23447</t>
+  </si>
+  <si>
+    <t>FireFlink_31194</t>
+  </si>
+  <si>
+    <t>FireFlink_45698</t>
+  </si>
+  <si>
+    <t>FireFlink_22102</t>
+  </si>
+  <si>
+    <t>FireFlink_41559</t>
+  </si>
+  <si>
+    <t>FireFlink_92950</t>
+  </si>
+  <si>
+    <t>FireFlink_18004</t>
+  </si>
+  <si>
+    <t>FireFlink_48778</t>
+  </si>
+  <si>
+    <t>FireFlink_32063</t>
+  </si>
+  <si>
+    <t>FireFlink_51439</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -901,6 +901,12 @@
   </si>
   <si>
     <t>FireFlink_51439</t>
+  </si>
+  <si>
+    <t>FireFlink_87345</t>
+  </si>
+  <si>
+    <t>FireFlink_41674</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -907,6 +907,12 @@
   </si>
   <si>
     <t>FireFlink_41674</t>
+  </si>
+  <si>
+    <t>FireFlink_14109</t>
+  </si>
+  <si>
+    <t>FireFlink_60141</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -913,6 +913,27 @@
   </si>
   <si>
     <t>FireFlink_60141</t>
+  </si>
+  <si>
+    <t>FireFlink_19079</t>
+  </si>
+  <si>
+    <t>FireFlink_87032</t>
+  </si>
+  <si>
+    <t>FireFlink_74709</t>
+  </si>
+  <si>
+    <t>FireFlink_47030</t>
+  </si>
+  <si>
+    <t>FireFlink_69893</t>
+  </si>
+  <si>
+    <t>FireFlink_36833</t>
+  </si>
+  <si>
+    <t>FireFlink_58887</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -934,6 +934,15 @@
   </si>
   <si>
     <t>FireFlink_58887</t>
+  </si>
+  <si>
+    <t>FireFlink_57224</t>
+  </si>
+  <si>
+    <t>FireFlink_86092</t>
+  </si>
+  <si>
+    <t>FireFlink_02231</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -943,6 +943,30 @@
   </si>
   <si>
     <t>FireFlink_02231</t>
+  </si>
+  <si>
+    <t>FireFlink_62562</t>
+  </si>
+  <si>
+    <t>FireFlink_11863</t>
+  </si>
+  <si>
+    <t>FireFlink_87274</t>
+  </si>
+  <si>
+    <t>FireFlink_59202</t>
+  </si>
+  <si>
+    <t>FireFlink_11757</t>
+  </si>
+  <si>
+    <t>FireFlink_04964</t>
+  </si>
+  <si>
+    <t>FireFlink_48302</t>
+  </si>
+  <si>
+    <t>FireFlink_96633</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -967,6 +967,30 @@
   </si>
   <si>
     <t>FireFlink_96633</t>
+  </si>
+  <si>
+    <t>FireFlink_60974</t>
+  </si>
+  <si>
+    <t>FireFlink_71085</t>
+  </si>
+  <si>
+    <t>FireFlink_19109</t>
+  </si>
+  <si>
+    <t>FireFlink_30507</t>
+  </si>
+  <si>
+    <t>FireFlink_93894</t>
+  </si>
+  <si>
+    <t>FireFlink_10115</t>
+  </si>
+  <si>
+    <t>FireFlink_37206</t>
+  </si>
+  <si>
+    <t>FireFlink_91585</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -991,6 +991,9 @@
   </si>
   <si>
     <t>FireFlink_91585</t>
+  </si>
+  <si>
+    <t>FireFlink_74422</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="453">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -991,6 +991,390 @@
   </si>
   <si>
     <t>FireFlink_91585</t>
+  </si>
+  <si>
+    <t>FireFlink_01932</t>
+  </si>
+  <si>
+    <t>FireFlink_93781</t>
+  </si>
+  <si>
+    <t>FireFlink_67971</t>
+  </si>
+  <si>
+    <t>FireFlink_98663</t>
+  </si>
+  <si>
+    <t>FireFlink_93558</t>
+  </si>
+  <si>
+    <t>FireFlink_99713</t>
+  </si>
+  <si>
+    <t>FireFlink_27908</t>
+  </si>
+  <si>
+    <t>FireFlink_88820</t>
+  </si>
+  <si>
+    <t>FireFlink_58646</t>
+  </si>
+  <si>
+    <t>FireFlink_26270</t>
+  </si>
+  <si>
+    <t>FireFlink_77518</t>
+  </si>
+  <si>
+    <t>FireFlink_37757</t>
+  </si>
+  <si>
+    <t>FireFlink_87140</t>
+  </si>
+  <si>
+    <t>FireFlink_14261</t>
+  </si>
+  <si>
+    <t>FireFlink_51456</t>
+  </si>
+  <si>
+    <t>FireFlink_63540</t>
+  </si>
+  <si>
+    <t>FireFlink_98531</t>
+  </si>
+  <si>
+    <t>FireFlink_19388</t>
+  </si>
+  <si>
+    <t>FireFlink_94816</t>
+  </si>
+  <si>
+    <t>FireFlink_09536</t>
+  </si>
+  <si>
+    <t>FireFlink_47450</t>
+  </si>
+  <si>
+    <t>FireFlink_28529</t>
+  </si>
+  <si>
+    <t>FireFlink_89297</t>
+  </si>
+  <si>
+    <t>FireFlink_47417</t>
+  </si>
+  <si>
+    <t>FireFlink_06795</t>
+  </si>
+  <si>
+    <t>FireFlink_69692</t>
+  </si>
+  <si>
+    <t>FireFlink_18200</t>
+  </si>
+  <si>
+    <t>FireFlink_42520</t>
+  </si>
+  <si>
+    <t>FireFlink_02356</t>
+  </si>
+  <si>
+    <t>FireFlink_73328</t>
+  </si>
+  <si>
+    <t>FireFlink_08827</t>
+  </si>
+  <si>
+    <t>FireFlink_08556</t>
+  </si>
+  <si>
+    <t>FireFlink_81525</t>
+  </si>
+  <si>
+    <t>FireFlink_26503</t>
+  </si>
+  <si>
+    <t>FireFlink_85254</t>
+  </si>
+  <si>
+    <t>FireFlink_92121</t>
+  </si>
+  <si>
+    <t>FireFlink_71659</t>
+  </si>
+  <si>
+    <t>FireFlink_47510</t>
+  </si>
+  <si>
+    <t>FireFlink_43004</t>
+  </si>
+  <si>
+    <t>FireFlink_51746</t>
+  </si>
+  <si>
+    <t>FireFlink_14619</t>
+  </si>
+  <si>
+    <t>FireFlink_27408</t>
+  </si>
+  <si>
+    <t>FireFlink_76858</t>
+  </si>
+  <si>
+    <t>FireFlink_00969</t>
+  </si>
+  <si>
+    <t>FireFlink_11950</t>
+  </si>
+  <si>
+    <t>FireFlink_38581</t>
+  </si>
+  <si>
+    <t>FireFlink_64919</t>
+  </si>
+  <si>
+    <t>FireFlink_82099</t>
+  </si>
+  <si>
+    <t>FireFlink_77926</t>
+  </si>
+  <si>
+    <t>FireFlink_28648</t>
+  </si>
+  <si>
+    <t>FireFlink_78369</t>
+  </si>
+  <si>
+    <t>FireFlink_13397</t>
+  </si>
+  <si>
+    <t>FireFlink_55678</t>
+  </si>
+  <si>
+    <t>FireFlink_25739</t>
+  </si>
+  <si>
+    <t>FireFlink_33148</t>
+  </si>
+  <si>
+    <t>FireFlink_45717</t>
+  </si>
+  <si>
+    <t>FireFlink_55450</t>
+  </si>
+  <si>
+    <t>FireFlink_94099</t>
+  </si>
+  <si>
+    <t>FireFlink_83078</t>
+  </si>
+  <si>
+    <t>FireFlink_18163</t>
+  </si>
+  <si>
+    <t>FireFlink_16886</t>
+  </si>
+  <si>
+    <t>FireFlink_34161</t>
+  </si>
+  <si>
+    <t>FireFlink_56748</t>
+  </si>
+  <si>
+    <t>FireFlink_25609</t>
+  </si>
+  <si>
+    <t>FireFlink_61762</t>
+  </si>
+  <si>
+    <t>FireFlink_31484</t>
+  </si>
+  <si>
+    <t>FireFlink_03539</t>
+  </si>
+  <si>
+    <t>FireFlink_50146</t>
+  </si>
+  <si>
+    <t>FireFlink_89262</t>
+  </si>
+  <si>
+    <t>FireFlink_44993</t>
+  </si>
+  <si>
+    <t>FireFlink_97848</t>
+  </si>
+  <si>
+    <t>FireFlink_25224</t>
+  </si>
+  <si>
+    <t>FireFlink_43574</t>
+  </si>
+  <si>
+    <t>FireFlink_58076</t>
+  </si>
+  <si>
+    <t>FireFlink_12276</t>
+  </si>
+  <si>
+    <t>FireFlink_41085</t>
+  </si>
+  <si>
+    <t>FireFlink_18875</t>
+  </si>
+  <si>
+    <t>FireFlink_73403</t>
+  </si>
+  <si>
+    <t>FireFlink_35430</t>
+  </si>
+  <si>
+    <t>FireFlink_32872</t>
+  </si>
+  <si>
+    <t>FireFlink_54469</t>
+  </si>
+  <si>
+    <t>FireFlink_33321</t>
+  </si>
+  <si>
+    <t>FireFlink_06302</t>
+  </si>
+  <si>
+    <t>FireFlink_96908</t>
+  </si>
+  <si>
+    <t>FireFlink_51003</t>
+  </si>
+  <si>
+    <t>FireFlink_51092</t>
+  </si>
+  <si>
+    <t>FireFlink_16660</t>
+  </si>
+  <si>
+    <t>FireFlink_07148</t>
+  </si>
+  <si>
+    <t>FireFlink_00777</t>
+  </si>
+  <si>
+    <t>FireFlink_40511</t>
+  </si>
+  <si>
+    <t>FireFlink_43452</t>
+  </si>
+  <si>
+    <t>FireFlink_74147</t>
+  </si>
+  <si>
+    <t>FireFlink_22246</t>
+  </si>
+  <si>
+    <t>FireFlink_67486</t>
+  </si>
+  <si>
+    <t>FireFlink_16270</t>
+  </si>
+  <si>
+    <t>FireFlink_58585</t>
+  </si>
+  <si>
+    <t>FireFlink_48162</t>
+  </si>
+  <si>
+    <t>FireFlink_58141</t>
+  </si>
+  <si>
+    <t>FireFlink_23730</t>
+  </si>
+  <si>
+    <t>FireFlink_92862</t>
+  </si>
+  <si>
+    <t>FireFlink_76379</t>
+  </si>
+  <si>
+    <t>FireFlink_05725</t>
+  </si>
+  <si>
+    <t>FireFlink_87305</t>
+  </si>
+  <si>
+    <t>FireFlink_17912</t>
+  </si>
+  <si>
+    <t>FireFlink_02936</t>
+  </si>
+  <si>
+    <t>FireFlink_40580</t>
+  </si>
+  <si>
+    <t>FireFlink_42154</t>
+  </si>
+  <si>
+    <t>FireFlink_57740</t>
+  </si>
+  <si>
+    <t>FireFlink_84146</t>
+  </si>
+  <si>
+    <t>FireFlink_03144</t>
+  </si>
+  <si>
+    <t>FireFlink_45805</t>
+  </si>
+  <si>
+    <t>FireFlink_33287</t>
+  </si>
+  <si>
+    <t>FireFlink_86568</t>
+  </si>
+  <si>
+    <t>FireFlink_23329</t>
+  </si>
+  <si>
+    <t>FireFlink_88979</t>
+  </si>
+  <si>
+    <t>FireFlink_35639</t>
+  </si>
+  <si>
+    <t>FireFlink_00073</t>
+  </si>
+  <si>
+    <t>FireFlink_71766</t>
+  </si>
+  <si>
+    <t>FireFlink_64080</t>
+  </si>
+  <si>
+    <t>FireFlink_93137</t>
+  </si>
+  <si>
+    <t>FireFlink_50723</t>
+  </si>
+  <si>
+    <t>FireFlink_25922</t>
+  </si>
+  <si>
+    <t>FireFlink_29745</t>
+  </si>
+  <si>
+    <t>FireFlink_79172</t>
+  </si>
+  <si>
+    <t>FireFlink_79905</t>
+  </si>
+  <si>
+    <t>FireFlink_67811</t>
+  </si>
+  <si>
+    <t>FireFlink_74007</t>
+  </si>
+  <si>
+    <t>FireFlink_30136</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="465">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1375,6 +1375,42 @@
   </si>
   <si>
     <t>FireFlink_30136</t>
+  </si>
+  <si>
+    <t>FireFlink_17842</t>
+  </si>
+  <si>
+    <t>FireFlink_93116</t>
+  </si>
+  <si>
+    <t>FireFlink_85846</t>
+  </si>
+  <si>
+    <t>FireFlink_57795</t>
+  </si>
+  <si>
+    <t>FireFlink_27641</t>
+  </si>
+  <si>
+    <t>FireFlink_86746</t>
+  </si>
+  <si>
+    <t>FireFlink_57336</t>
+  </si>
+  <si>
+    <t>FireFlink_05749</t>
+  </si>
+  <si>
+    <t>FireFlink_23121</t>
+  </si>
+  <si>
+    <t>FireFlink_52239</t>
+  </si>
+  <si>
+    <t>FireFlink_25483</t>
+  </si>
+  <si>
+    <t>FireFlink_79734</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="479">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1411,6 +1411,48 @@
   </si>
   <si>
     <t>FireFlink_79734</t>
+  </si>
+  <si>
+    <t>FireFlink_98627</t>
+  </si>
+  <si>
+    <t>FireFlink_90975</t>
+  </si>
+  <si>
+    <t>FireFlink_71553</t>
+  </si>
+  <si>
+    <t>FireFlink_43565</t>
+  </si>
+  <si>
+    <t>FireFlink_21808</t>
+  </si>
+  <si>
+    <t>FireFlink_10624</t>
+  </si>
+  <si>
+    <t>FireFlink_73385</t>
+  </si>
+  <si>
+    <t>FireFlink_81821</t>
+  </si>
+  <si>
+    <t>FireFlink_77581</t>
+  </si>
+  <si>
+    <t>FireFlink_90950</t>
+  </si>
+  <si>
+    <t>FireFlink_10498</t>
+  </si>
+  <si>
+    <t>FireFlink_59603</t>
+  </si>
+  <si>
+    <t>FireFlink_38187</t>
+  </si>
+  <si>
+    <t>FireFlink_26884</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="484">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1453,6 +1453,21 @@
   </si>
   <si>
     <t>FireFlink_26884</t>
+  </si>
+  <si>
+    <t>FireFlink_53762</t>
+  </si>
+  <si>
+    <t>FireFlink_57694</t>
+  </si>
+  <si>
+    <t>FireFlink_09664</t>
+  </si>
+  <si>
+    <t>FireFlink_89819</t>
+  </si>
+  <si>
+    <t>FireFlink_60494</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="491">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1468,6 +1468,27 @@
   </si>
   <si>
     <t>FireFlink_60494</t>
+  </si>
+  <si>
+    <t>FireFlink_44488</t>
+  </si>
+  <si>
+    <t>FireFlink_75783</t>
+  </si>
+  <si>
+    <t>FireFlink_87091</t>
+  </si>
+  <si>
+    <t>FireFlink_70828</t>
+  </si>
+  <si>
+    <t>FireFlink_68659</t>
+  </si>
+  <si>
+    <t>FireFlink_58198</t>
+  </si>
+  <si>
+    <t>FireFlink_67760</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1489,6 +1489,42 @@
   </si>
   <si>
     <t>FireFlink_67760</t>
+  </si>
+  <si>
+    <t>FireFlink_27849</t>
+  </si>
+  <si>
+    <t>FireFlink_15675</t>
+  </si>
+  <si>
+    <t>FireFlink_48514</t>
+  </si>
+  <si>
+    <t>FireFlink_56387</t>
+  </si>
+  <si>
+    <t>FireFlink_91919</t>
+  </si>
+  <si>
+    <t>FireFlink_11967</t>
+  </si>
+  <si>
+    <t>FireFlink_87909</t>
+  </si>
+  <si>
+    <t>FireFlink_10082</t>
+  </si>
+  <si>
+    <t>FireFlink_71289</t>
+  </si>
+  <si>
+    <t>FireFlink_59362</t>
+  </si>
+  <si>
+    <t>FireFlink_78570</t>
+  </si>
+  <si>
+    <t>FireFlink_71625</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="510">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1525,6 +1525,27 @@
   </si>
   <si>
     <t>FireFlink_71625</t>
+  </si>
+  <si>
+    <t>FireFlink_23784</t>
+  </si>
+  <si>
+    <t>FireFlink_50956</t>
+  </si>
+  <si>
+    <t>FireFlink_82723</t>
+  </si>
+  <si>
+    <t>FireFlink_59461</t>
+  </si>
+  <si>
+    <t>FireFlink_44326</t>
+  </si>
+  <si>
+    <t>FireFlink_33865</t>
+  </si>
+  <si>
+    <t>FireFlink_96929</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="511">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1546,6 +1546,9 @@
   </si>
   <si>
     <t>FireFlink_96929</t>
+  </si>
+  <si>
+    <t>FireFlink_17578</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="513">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1549,6 +1549,12 @@
   </si>
   <si>
     <t>FireFlink_17578</t>
+  </si>
+  <si>
+    <t>FireFlink_40862</t>
+  </si>
+  <si>
+    <t>FireFlink_27087</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="514">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1555,6 +1555,9 @@
   </si>
   <si>
     <t>FireFlink_27087</t>
+  </si>
+  <si>
+    <t>FireFlink_28129</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="528">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1549,6 +1549,57 @@
   </si>
   <si>
     <t>FireFlink_17578</t>
+  </si>
+  <si>
+    <t>FireFlink_40862</t>
+  </si>
+  <si>
+    <t>FireFlink_27087</t>
+  </si>
+  <si>
+    <t>FireFlink_38196</t>
+  </si>
+  <si>
+    <t>FireFlink_89999</t>
+  </si>
+  <si>
+    <t>FireFlink_50746</t>
+  </si>
+  <si>
+    <t>FireFlink_96195</t>
+  </si>
+  <si>
+    <t>FireFlink_65710</t>
+  </si>
+  <si>
+    <t>FireFlink_21665</t>
+  </si>
+  <si>
+    <t>FireFlink_86927</t>
+  </si>
+  <si>
+    <t>FireFlink_34479</t>
+  </si>
+  <si>
+    <t>FireFlink_73023</t>
+  </si>
+  <si>
+    <t>FireFlink_74112</t>
+  </si>
+  <si>
+    <t>FireFlink_69257</t>
+  </si>
+  <si>
+    <t>FireFlink_59237</t>
+  </si>
+  <si>
+    <t>FireFlink_52578</t>
+  </si>
+  <si>
+    <t>FireFlink_25810</t>
+  </si>
+  <si>
+    <t>FireFlink_18352</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/dataSheet/getDataExcel.xlsx
+++ b/dataSheet/getDataExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="537">
   <si>
     <t>Actual Project Name</t>
   </si>
@@ -1600,6 +1600,33 @@
   </si>
   <si>
     <t>FireFlink_18352</t>
+  </si>
+  <si>
+    <t>FireFlink_38940</t>
+  </si>
+  <si>
+    <t>FireFlink_33140</t>
+  </si>
+  <si>
+    <t>FireFlink_16364</t>
+  </si>
+  <si>
+    <t>FireFlink_65564</t>
+  </si>
+  <si>
+    <t>FireFlink_41198</t>
+  </si>
+  <si>
+    <t>FireFlink_24595</t>
+  </si>
+  <si>
+    <t>FireFlink_96312</t>
+  </si>
+  <si>
+    <t>FireFlink_39979</t>
+  </si>
+  <si>
+    <t>FireFlink_72366</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
